--- a/data/activities/follower.xlsx
+++ b/data/activities/follower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\activity_management\data\activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6D7838-CFBE-494D-90C0-504A725F95D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB74436-EFB7-4EBD-9288-F1F15D00A438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,16 @@
     <sheet name="報名名單" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>報名時間</t>
   </si>
@@ -119,33 +124,6 @@
   </si>
   <si>
     <t>其他</t>
-  </si>
-  <si>
-    <t>2025-02-27 16:38:02</t>
-  </si>
-  <si>
-    <t>20250227A217506</t>
-  </si>
-  <si>
-    <t>李如琪</t>
-  </si>
-  <si>
-    <t>奇美醫院臨床試驗中心</t>
-  </si>
-  <si>
-    <t>小組長</t>
-  </si>
-  <si>
-    <t>06-2812811轉57267</t>
-  </si>
-  <si>
-    <t>0988301381</t>
-  </si>
-  <si>
-    <t>D220225670</t>
-  </si>
-  <si>
-    <t>是</t>
   </si>
   <si>
     <t>tanyayu@mpat.org.tw</t>
@@ -542,17 +520,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD35E17-AB28-48A4-B14A-5998ABDF408A}">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -561,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -579,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -648,7 +626,7 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>21</v>
@@ -713,7 +691,7 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>21</v>
@@ -751,73 +729,6 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/activities/follower.xlsx
+++ b/data/activities/follower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\activity_management\data\activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB74436-EFB7-4EBD-9288-F1F15D00A438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7148F390-1B2A-47FE-A6D6-16188419C9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>報名時間</t>
   </si>
@@ -520,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD35E17-AB28-48A4-B14A-5998ABDF408A}">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -729,6 +729,71 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
     </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/activities/follower.xlsx
+++ b/data/activities/follower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\activity_management\data\activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7148F390-1B2A-47FE-A6D6-16188419C9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD1740E-5F54-49DC-B24C-2E13DB50DCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>報名時間</t>
   </si>
@@ -124,10 +124,6 @@
   </si>
   <si>
     <t>其他</t>
-  </si>
-  <si>
-    <t>tanyayu@mpat.org.tw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
@@ -139,6 +135,55 @@
   </si>
   <si>
     <t>mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May Mpat &lt;may@mpat.org.tw&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alexli Mpat &lt;alexli@mpat.org.tw&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台灣醫界聯盟基金會吳宜瑾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主任</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;wu@mpat.org.tw&gt;</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -157,6 +202,20 @@
       <sz val="9"/>
       <name val="細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -180,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -191,6 +250,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -523,14 +583,14 @@
   <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -539,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -557,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -626,7 +686,7 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>21</v>
@@ -691,7 +751,7 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>21</v>
@@ -729,7 +789,7 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -755,8 +815,8 @@
         <v>30</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" t="s">
-        <v>33</v>
+      <c r="J4" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>21</v>

--- a/data/activities/follower.xlsx
+++ b/data/activities/follower.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\activity_management\data\activities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\activity_management\output\backups\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD1740E-5F54-49DC-B24C-2E13DB50DCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5E2D57-51F4-41B1-80EF-9A3401FB743A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="報名名單" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>報名時間</t>
   </si>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t>其他</t>
+  </si>
+  <si>
+    <t>tanyayu@mpat.org.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
@@ -135,55 +139,6 @@
   </si>
   <si>
     <t>mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>May Mpat &lt;may@mpat.org.tw&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alexli Mpat &lt;alexli@mpat.org.tw&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>台灣醫界聯盟基金會吳宜瑾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主任</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;wu@mpat.org.tw&gt;</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -202,20 +157,6 @@
       <sz val="9"/>
       <name val="細明體"/>
       <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -239,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -250,7 +191,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -580,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD35E17-AB28-48A4-B14A-5998ABDF408A}">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
@@ -590,7 +530,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -599,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -617,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -686,7 +626,7 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>21</v>
@@ -751,7 +691,7 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>21</v>
@@ -789,71 +729,6 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
     </row>
-    <row r="4" spans="1:35" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/activities/follower.xlsx
+++ b/data/activities/follower.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\activity_management\output\backups\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\activity_management\data\activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5E2D57-51F4-41B1-80EF-9A3401FB743A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D29365-889B-42B6-8D68-4A81DCE7E5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="報名名單" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>報名時間</t>
   </si>
@@ -103,31 +103,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>2025-02-27 16:20:35</t>
-  </si>
-  <si>
-    <t>20250227A217505</t>
-  </si>
-  <si>
-    <t>陳珮珊</t>
-  </si>
-  <si>
-    <t>永康奇美醫院</t>
-  </si>
-  <si>
-    <t>0963663780</t>
-  </si>
-  <si>
-    <t>Q224108232</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>tanyayu@mpat.org.tw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
@@ -139,6 +114,10 @@
   </si>
   <si>
     <t>mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inthebeginning264108@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -158,6 +137,13 @@
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,10 +163,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -191,9 +178,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -520,17 +509,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD35E17-AB28-48A4-B14A-5998ABDF408A}">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -539,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -557,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -625,8 +614,8 @@
         <v>20</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" t="s">
-        <v>33</v>
+      <c r="J2" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>21</v>
@@ -664,74 +653,12 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{9126DCCB-8947-47B1-A232-54A7E07AADAB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>